--- a/biology/Zoologie/Conus_aulicus/Conus_aulicus.xlsx
+++ b/biology/Zoologie/Conus_aulicus/Conus_aulicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus aulicus est un mollusque gastéropode appartenant à la famille des Conidae. Il fait partie des cônes venimeux dangereux pour l'Homme.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cône de forme caractéristique, avec une coquille allant du jaune orangé au brun sombre, portant des motifs en triangles couleur crème de taille variable et plus ou moins chevauchants. Le manteau est crème marbré de brun.
-Cette espèce mesure entre 6 et 16 cm de long[2].
+Cette espèce mesure entre 6 et 16 cm de long.
 			Détail de la spire
 			Spécimen in situ, abîmé par le sable
 </t>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cône est fréquent dans tout l'Indo-Pacifique tropical, des côtes est-africaines à la Polynésie[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cône est fréquent dans tout l'Indo-Pacifique tropical, des côtes est-africaines à la Polynésie. 
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cône est principalement mollusquivore : comme les autres espèces du genre Conus, cet animal chasse ses proies à l'aide d'un dard venimeux qu'il peut projeter violemment devant lui. Le venin de cette espèce est dangereux pour l'Homme, mais les accidents demeurent rares car cette espèce est essentiellement nocturne et pas agressive (il piquera uniquement en cas de légitime défense). 
 </t>
@@ -607,7 +625,9 @@
           <t>Autres cônes dangereux (liste non exhaustive)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Conus aulicus
 Conus aureus
@@ -648,7 +668,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mollusque figure sur une émission du Laos de 1993 (valeur faciale : 500 k).
 </t>
